--- a/ppt_nba/ppt_nba_data.xlsx
+++ b/ppt_nba/ppt_nba_data.xlsx
@@ -560,7 +560,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
